--- a/data/trans_orig/IQ3001_MoAR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ3001_MoAR-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F44D0FB-D28E-4217-B3C3-3366E52B54A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0545360-B5DA-4116-81AA-EC309684ABE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A676FB39-FB71-4D77-AEB0-9B6721EDB252}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1E86B20A-4AA9-4553-BDFB-BFC6B8415C87}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,18 +70,240 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>0,0%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
     <t>5,31%</t>
   </si>
   <si>
@@ -91,240 +313,18 @@
     <t>3,05%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
     <t>Menores según la edad en meses en la que empezaron a comer cereales sin gluten en 2012 (Tasa respuesta: 14,2%)</t>
   </si>
   <si>
@@ -334,6 +334,213 @@
     <t>0,64%</t>
   </si>
   <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
@@ -343,213 +550,6 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
     <t>Menores según la edad en meses en la que empezaron a comer cereales sin gluten en 2015 (Tasa respuesta: 10,3%)</t>
   </si>
   <si>
@@ -562,6 +562,216 @@
     <t>0,87%</t>
   </si>
   <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
     <t>8,33%</t>
   </si>
   <si>
@@ -578,216 +788,6 @@
   </si>
   <si>
     <t>9,48%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0E336B-0E37-4EE6-AF40-57BA56206919}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE4C22C-DC33-4EEC-AB1E-082DF7FE9519}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1294,13 +1294,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -1312,106 +1312,106 @@
         <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>767</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="M4" s="7">
-        <v>2</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1415</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
       <c r="D5" s="7">
-        <v>1336</v>
+        <v>701</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>701</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1336</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>2155</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1420,283 +1420,283 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>2155</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>13432</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>11347</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>24779</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>32439</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="H8" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>33680</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>66119</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7">
-        <v>8505</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="7">
-        <v>20</v>
-      </c>
-      <c r="I9" s="7">
-        <v>12319</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="M9" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>20824</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>16872</v>
+        <v>603</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>9712</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>26584</v>
+        <v>603</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>2747</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>4697</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1711,13 +1711,13 @@
         <v>3913</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -1726,13 +1726,13 @@
         <v>2543</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -1741,316 +1741,316 @@
         <v>6456</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>2747</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>4697</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>603</v>
+        <v>16872</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>9712</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N14" s="7">
-        <v>603</v>
+        <v>26584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>8505</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>12319</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>20824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>32439</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>33680</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>66119</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>13432</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>11347</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>24779</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>2155</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
+        <v>3</v>
+      </c>
+      <c r="N18" s="7">
+        <v>2155</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>82</v>
@@ -2059,22 +2059,22 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>701</v>
+        <v>1336</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2083,79 +2083,79 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>701</v>
+        <v>1336</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>1415</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,7 +2214,7 @@
         <v>92</v>
       </c>
       <c r="B22" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2304,7 +2304,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -2349,7 +2349,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -2394,7 +2394,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2439,7 +2439,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -2484,7 +2484,7 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -2529,7 +2529,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2619,7 +2619,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2664,7 +2664,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -2709,7 +2709,7 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -2754,7 +2754,7 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -2799,7 +2799,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -2844,7 +2844,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -2934,7 +2934,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>94</v>
       </c>
       <c r="B40" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -3116,7 +3116,7 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -3161,7 +3161,7 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -3206,7 +3206,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -3251,7 +3251,7 @@
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -3296,7 +3296,7 @@
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C46" s="7">
         <v>0</v>
@@ -3341,7 +3341,7 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -3431,7 +3431,7 @@
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -3476,7 +3476,7 @@
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -3521,7 +3521,7 @@
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C51" s="7">
         <v>0</v>
@@ -3566,7 +3566,7 @@
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C52" s="7">
         <v>0</v>
@@ -3611,7 +3611,7 @@
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -3656,7 +3656,7 @@
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C54" s="7">
         <v>0</v>
@@ -3701,7 +3701,7 @@
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -3746,7 +3746,7 @@
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
@@ -3838,13 +3838,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C58" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="7">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>10</v>
@@ -3856,106 +3856,106 @@
         <v>12</v>
       </c>
       <c r="H58" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>767</v>
+        <v>0</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L58" s="7" t="s">
+      <c r="M58" s="7">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="M58" s="7">
-        <v>2</v>
-      </c>
-      <c r="N58" s="7">
-        <v>1415</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
+        <v>16</v>
+      </c>
+      <c r="C59" s="7">
         <v>1</v>
       </c>
-      <c r="C59" s="7">
-        <v>2</v>
-      </c>
       <c r="D59" s="7">
-        <v>1336</v>
+        <v>701</v>
       </c>
       <c r="E59" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M59" s="7">
+        <v>1</v>
+      </c>
+      <c r="N59" s="7">
+        <v>701</v>
+      </c>
+      <c r="O59" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="P59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0</v>
-      </c>
-      <c r="I59" s="7">
-        <v>0</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M59" s="7">
-        <v>2</v>
-      </c>
-      <c r="N59" s="7">
-        <v>1336</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C60" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D60" s="7">
-        <v>2155</v>
+        <v>0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -3964,283 +3964,283 @@
         <v>0</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M60" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N60" s="7">
-        <v>2155</v>
+        <v>0</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C61" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D61" s="7">
-        <v>13432</v>
+        <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H61" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>11347</v>
+        <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M61" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="N61" s="7">
-        <v>24779</v>
+        <v>0</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C62" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D62" s="7">
-        <v>32439</v>
+        <v>0</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="H62" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>33680</v>
+        <v>0</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M62" s="7">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N62" s="7">
-        <v>66119</v>
+        <v>0</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C63" s="7">
+        <v>0</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="7">
-        <v>8505</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H63" s="7">
-        <v>20</v>
-      </c>
-      <c r="I63" s="7">
-        <v>12319</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="M63" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N63" s="7">
-        <v>20824</v>
+        <v>0</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C64" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D64" s="7">
-        <v>16872</v>
+        <v>603</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="H64" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>9712</v>
+        <v>0</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M64" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="N64" s="7">
-        <v>26584</v>
+        <v>603</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C65" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D65" s="7">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H65" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>2747</v>
+        <v>0</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="K65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L65" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="M65" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N65" s="7">
-        <v>4697</v>
+        <v>0</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4255,13 @@
         <v>3913</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="H66" s="7">
         <v>4</v>
@@ -4270,13 +4270,13 @@
         <v>2543</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="M66" s="7">
         <v>10</v>
@@ -4285,316 +4285,316 @@
         <v>6456</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C67" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D67" s="7">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="H67" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I67" s="7">
-        <v>0</v>
+        <v>2747</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M67" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N67" s="7">
-        <v>0</v>
+        <v>4697</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C68" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D68" s="7">
-        <v>603</v>
+        <v>16872</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H68" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I68" s="7">
-        <v>0</v>
+        <v>9712</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M68" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N68" s="7">
-        <v>603</v>
+        <v>26584</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C69" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D69" s="7">
-        <v>0</v>
+        <v>8505</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="H69" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I69" s="7">
-        <v>0</v>
+        <v>12319</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M69" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N69" s="7">
-        <v>0</v>
+        <v>20824</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C70" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D70" s="7">
-        <v>0</v>
+        <v>32439</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="H70" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I70" s="7">
-        <v>0</v>
+        <v>33680</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="M70" s="7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N70" s="7">
-        <v>0</v>
+        <v>66119</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C71" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D71" s="7">
-        <v>0</v>
+        <v>13432</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H71" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I71" s="7">
-        <v>0</v>
+        <v>11347</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="M71" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N71" s="7">
-        <v>0</v>
+        <v>24779</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C72" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D72" s="7">
-        <v>0</v>
+        <v>2155</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="G72" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M72" s="7">
+        <v>3</v>
+      </c>
+      <c r="N72" s="7">
+        <v>2155</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P72" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H72" s="7">
-        <v>0</v>
-      </c>
-      <c r="I72" s="7">
-        <v>0</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M72" s="7">
-        <v>0</v>
-      </c>
-      <c r="N72" s="7">
-        <v>0</v>
-      </c>
-      <c r="O72" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P72" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="Q72" s="7" t="s">
         <v>82</v>
@@ -4603,22 +4603,22 @@
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C73" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" s="7">
-        <v>701</v>
+        <v>1336</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -4627,79 +4627,79 @@
         <v>0</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M73" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N73" s="7">
-        <v>701</v>
+        <v>1336</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C74" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="7">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H74" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="7">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="M74" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N74" s="7">
-        <v>0</v>
+        <v>1415</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,7 +4769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62D7695-D049-4D98-B729-8BDA9B4056CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CA2975-4A21-43DE-BED0-F28B4D61B838}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4884,7 +4884,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -4893,13 +4893,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4908,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>96</v>
@@ -4923,10 +4923,10 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>97</v>
@@ -4935,7 +4935,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -4944,13 +4944,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4959,10 +4959,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>96</v>
@@ -4974,10 +4974,10 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>97</v>
@@ -4986,22 +4986,22 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5010,283 +5010,283 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>96</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>7516</v>
+        <v>692</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>692</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="7">
-        <v>14</v>
-      </c>
-      <c r="I7" s="7">
-        <v>9124</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M7" s="7">
-        <v>25</v>
-      </c>
-      <c r="N7" s="7">
-        <v>16640</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1281</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="7">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7">
-        <v>36564</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="7">
-        <v>49</v>
-      </c>
       <c r="I8" s="7">
-        <v>33209</v>
+        <v>2432</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>69772</v>
+        <v>3713</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>21558</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="H9" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>16526</v>
+        <v>704</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="M9" s="7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>38084</v>
+        <v>704</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>30596</v>
+        <v>1475</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="H10" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>30629</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>61225</v>
+        <v>1475</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>3987</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>2513</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,10 +5304,10 @@
         <v>97</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -5316,13 +5316,13 @@
         <v>4252</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -5331,289 +5331,289 @@
         <v>4921</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3987</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2513</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" s="7">
         <v>9</v>
       </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>1475</v>
+        <v>30596</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>30629</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="N14" s="7">
-        <v>1475</v>
+        <v>61225</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>21558</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I15" s="7">
-        <v>704</v>
+        <v>16526</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="N15" s="7">
-        <v>704</v>
+        <v>38084</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7">
-        <v>1281</v>
+        <v>36564</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="I16" s="7">
-        <v>2432</v>
+        <v>33209</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="N16" s="7">
-        <v>3713</v>
+        <v>69772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>692</v>
+        <v>7516</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="7">
+        <v>14</v>
+      </c>
+      <c r="I17" s="7">
+        <v>9124</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" s="7">
+        <v>25</v>
+      </c>
+      <c r="N17" s="7">
+        <v>16640</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>692</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5622,34 +5622,34 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>96</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -5658,13 +5658,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5673,10 +5673,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>96</v>
@@ -5688,10 +5688,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>97</v>
@@ -5700,7 +5700,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5709,13 +5709,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5724,10 +5724,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>96</v>
@@ -5739,10 +5739,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>97</v>
@@ -5804,7 +5804,7 @@
         <v>92</v>
       </c>
       <c r="B22" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -5849,7 +5849,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -5894,7 +5894,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -5939,7 +5939,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -5984,7 +5984,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -6029,7 +6029,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -6074,7 +6074,7 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -6119,7 +6119,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -6209,7 +6209,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -6254,7 +6254,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -6299,7 +6299,7 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -6344,7 +6344,7 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -6389,7 +6389,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -6434,7 +6434,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -6479,7 +6479,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -6524,7 +6524,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>94</v>
       </c>
       <c r="B40" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -6661,7 +6661,7 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -6706,7 +6706,7 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -6751,7 +6751,7 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -6796,7 +6796,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -6841,7 +6841,7 @@
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -6886,7 +6886,7 @@
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C46" s="7">
         <v>0</v>
@@ -6931,7 +6931,7 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -7021,7 +7021,7 @@
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -7066,7 +7066,7 @@
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -7111,7 +7111,7 @@
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C51" s="7">
         <v>0</v>
@@ -7156,7 +7156,7 @@
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C52" s="7">
         <v>0</v>
@@ -7201,7 +7201,7 @@
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -7246,7 +7246,7 @@
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C54" s="7">
         <v>0</v>
@@ -7291,7 +7291,7 @@
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -7336,7 +7336,7 @@
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C58" s="7">
         <v>0</v>
@@ -7437,13 +7437,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -7452,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>96</v>
@@ -7467,10 +7467,10 @@
         <v>0</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>97</v>
@@ -7479,7 +7479,7 @@
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C59" s="7">
         <v>0</v>
@@ -7488,13 +7488,13 @@
         <v>0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -7503,10 +7503,10 @@
         <v>0</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>96</v>
@@ -7518,10 +7518,10 @@
         <v>0</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
         <v>97</v>
@@ -7530,22 +7530,22 @@
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C60" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" s="7">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -7554,283 +7554,283 @@
         <v>0</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>96</v>
       </c>
       <c r="M60" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" s="7">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C61" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D61" s="7">
-        <v>7516</v>
+        <v>692</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M61" s="7">
+        <v>1</v>
+      </c>
+      <c r="N61" s="7">
+        <v>692</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H61" s="7">
-        <v>14</v>
-      </c>
-      <c r="I61" s="7">
-        <v>9124</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M61" s="7">
-        <v>25</v>
-      </c>
-      <c r="N61" s="7">
-        <v>16640</v>
-      </c>
-      <c r="O61" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
+        <v>12</v>
+      </c>
+      <c r="C62" s="7">
+        <v>2</v>
+      </c>
+      <c r="D62" s="7">
+        <v>1281</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H62" s="7">
         <v>4</v>
       </c>
-      <c r="C62" s="7">
-        <v>52</v>
-      </c>
-      <c r="D62" s="7">
-        <v>36564</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H62" s="7">
-        <v>49</v>
-      </c>
       <c r="I62" s="7">
-        <v>33209</v>
+        <v>2432</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="M62" s="7">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="N62" s="7">
-        <v>69772</v>
+        <v>3713</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C63" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D63" s="7">
-        <v>21558</v>
+        <v>0</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="H63" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I63" s="7">
-        <v>16526</v>
+        <v>704</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="M63" s="7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="N63" s="7">
-        <v>38084</v>
+        <v>704</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C64" s="7">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D64" s="7">
-        <v>30596</v>
+        <v>1475</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="H64" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>30629</v>
+        <v>0</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="M64" s="7">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="N64" s="7">
-        <v>61225</v>
+        <v>1475</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C65" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D65" s="7">
-        <v>3987</v>
+        <v>0</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="H65" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>2513</v>
+        <v>0</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="M65" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N65" s="7">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -7848,10 +7848,10 @@
         <v>97</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="H66" s="7">
         <v>6</v>
@@ -7860,13 +7860,13 @@
         <v>4252</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="M66" s="7">
         <v>7</v>
@@ -7875,289 +7875,289 @@
         <v>4921</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
+        <v>7</v>
+      </c>
+      <c r="C67" s="7">
+        <v>5</v>
+      </c>
+      <c r="D67" s="7">
+        <v>3987</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H67" s="7">
+        <v>4</v>
+      </c>
+      <c r="I67" s="7">
+        <v>2513</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M67" s="7">
         <v>9</v>
       </c>
-      <c r="C67" s="7">
-        <v>0</v>
-      </c>
-      <c r="D67" s="7">
-        <v>0</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="7">
-        <v>0</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M67" s="7">
-        <v>0</v>
-      </c>
       <c r="N67" s="7">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C68" s="7">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D68" s="7">
-        <v>1475</v>
+        <v>30596</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="H68" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I68" s="7">
-        <v>0</v>
+        <v>30629</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="M68" s="7">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="N68" s="7">
-        <v>1475</v>
+        <v>61225</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C69" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D69" s="7">
-        <v>0</v>
+        <v>21558</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="H69" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I69" s="7">
-        <v>704</v>
+        <v>16526</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M69" s="7">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="N69" s="7">
-        <v>704</v>
+        <v>38084</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C70" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D70" s="7">
-        <v>1281</v>
+        <v>36564</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H70" s="7">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="I70" s="7">
-        <v>2432</v>
+        <v>33209</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="M70" s="7">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="N70" s="7">
-        <v>3713</v>
+        <v>69772</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C71" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D71" s="7">
-        <v>692</v>
+        <v>7516</v>
       </c>
       <c r="E71" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H71" s="7">
+        <v>14</v>
+      </c>
+      <c r="I71" s="7">
+        <v>9124</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M71" s="7">
+        <v>25</v>
+      </c>
+      <c r="N71" s="7">
+        <v>16640</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q71" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H71" s="7">
-        <v>0</v>
-      </c>
-      <c r="I71" s="7">
-        <v>0</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M71" s="7">
-        <v>1</v>
-      </c>
-      <c r="N71" s="7">
-        <v>692</v>
-      </c>
-      <c r="O71" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P71" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q71" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C72" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="7">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -8166,34 +8166,34 @@
         <v>0</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>96</v>
       </c>
       <c r="M72" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" s="7">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C73" s="7">
         <v>0</v>
@@ -8202,13 +8202,13 @@
         <v>0</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -8217,10 +8217,10 @@
         <v>0</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>96</v>
@@ -8232,10 +8232,10 @@
         <v>0</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q73" s="7" t="s">
         <v>97</v>
@@ -8244,7 +8244,7 @@
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C74" s="7">
         <v>0</v>
@@ -8253,13 +8253,13 @@
         <v>0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -8268,10 +8268,10 @@
         <v>0</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>96</v>
@@ -8283,10 +8283,10 @@
         <v>0</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q74" s="7" t="s">
         <v>97</v>
@@ -8359,7 +8359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C69438D-7BE2-44A2-BDE5-812166EE19DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A160DAA3-88F8-4B79-9831-485613F976EC}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8474,7 +8474,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -8483,49 +8483,49 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>171</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>171</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>172</v>
@@ -8564,10 +8564,10 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>173</v>
@@ -8576,7 +8576,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -8585,298 +8585,298 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>171</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>5834</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>2383</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M7" s="7">
-        <v>13</v>
-      </c>
-      <c r="N7" s="7">
-        <v>8218</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>24065</v>
+        <v>3395</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1183</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>7</v>
+      </c>
+      <c r="N8" s="7">
+        <v>4578</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H8" s="7">
-        <v>36</v>
-      </c>
-      <c r="I8" s="7">
-        <v>22080</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M8" s="7">
-        <v>72</v>
-      </c>
-      <c r="N8" s="7">
-        <v>46144</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>9308</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="H9" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>10413</v>
+        <v>687</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M9" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>19721</v>
+        <v>687</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>19584</v>
+        <v>1321</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>22581</v>
+        <v>670</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>42165</v>
+        <v>1991</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1843</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2374</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="7">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3391</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3189</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M11" s="7">
-        <v>10</v>
-      </c>
       <c r="N11" s="7">
-        <v>6580</v>
+        <v>4217</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8891,13 +8891,13 @@
         <v>1264</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -8906,13 +8906,13 @@
         <v>3681</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -8921,274 +8921,274 @@
         <v>4945</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>1843</v>
+        <v>3391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>2374</v>
+        <v>3189</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>4217</v>
+        <v>6580</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>1321</v>
+        <v>19584</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>670</v>
+        <v>22581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="N14" s="7">
-        <v>1991</v>
+        <v>42165</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>9308</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I15" s="7">
-        <v>687</v>
+        <v>10413</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="N15" s="7">
-        <v>687</v>
+        <v>19721</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7">
-        <v>3395</v>
+        <v>24065</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="7">
+        <v>36</v>
+      </c>
+      <c r="I16" s="7">
+        <v>22080</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>72</v>
+      </c>
+      <c r="N16" s="7">
+        <v>46144</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1183</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="M16" s="7">
-        <v>7</v>
-      </c>
-      <c r="N16" s="7">
-        <v>4578</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5834</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2383</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M17" s="7">
         <v>13</v>
       </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>8218</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -9197,49 +9197,49 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>171</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>249</v>
+        <v>10</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -9248,10 +9248,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>171</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>172</v>
@@ -9278,10 +9278,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>173</v>
@@ -9290,7 +9290,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -9299,43 +9299,43 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>171</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9394,7 +9394,7 @@
         <v>92</v>
       </c>
       <c r="B22" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -9439,7 +9439,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -9484,7 +9484,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -9529,7 +9529,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -9574,7 +9574,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -9619,7 +9619,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -9664,7 +9664,7 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -9709,7 +9709,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -9799,7 +9799,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -9844,7 +9844,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -9889,7 +9889,7 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -9934,7 +9934,7 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -9979,7 +9979,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -10024,7 +10024,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -10069,7 +10069,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -10114,7 +10114,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>94</v>
       </c>
       <c r="B40" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -10251,7 +10251,7 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -10296,7 +10296,7 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -10341,7 +10341,7 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -10386,7 +10386,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -10431,7 +10431,7 @@
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -10476,7 +10476,7 @@
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C46" s="7">
         <v>0</v>
@@ -10521,7 +10521,7 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -10611,7 +10611,7 @@
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -10656,7 +10656,7 @@
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -10701,7 +10701,7 @@
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C51" s="7">
         <v>0</v>
@@ -10746,7 +10746,7 @@
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C52" s="7">
         <v>0</v>
@@ -10791,7 +10791,7 @@
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -10836,7 +10836,7 @@
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C54" s="7">
         <v>0</v>
@@ -10881,7 +10881,7 @@
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -10926,7 +10926,7 @@
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
@@ -11018,7 +11018,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C58" s="7">
         <v>0</v>
@@ -11027,49 +11027,49 @@
         <v>0</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>171</v>
       </c>
       <c r="H58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="7">
         <v>0</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="M58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" s="7">
         <v>0</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C59" s="7">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>171</v>
@@ -11093,10 +11093,10 @@
         <v>0</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>172</v>
@@ -11108,10 +11108,10 @@
         <v>0</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
         <v>173</v>
@@ -11120,7 +11120,7 @@
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C60" s="7">
         <v>0</v>
@@ -11129,298 +11129,298 @@
         <v>0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>171</v>
       </c>
       <c r="H60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="7">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" s="7">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C61" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D61" s="7">
-        <v>5834</v>
+        <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="H61" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>2383</v>
+        <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="K61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q61" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M61" s="7">
-        <v>13</v>
-      </c>
-      <c r="N61" s="7">
-        <v>8218</v>
-      </c>
-      <c r="O61" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C62" s="7">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D62" s="7">
-        <v>24065</v>
+        <v>3395</v>
       </c>
       <c r="E62" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H62" s="7">
+        <v>2</v>
+      </c>
+      <c r="I62" s="7">
+        <v>1183</v>
+      </c>
+      <c r="J62" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="K62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="M62" s="7">
+        <v>7</v>
+      </c>
+      <c r="N62" s="7">
+        <v>4578</v>
+      </c>
+      <c r="O62" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H62" s="7">
-        <v>36</v>
-      </c>
-      <c r="I62" s="7">
-        <v>22080</v>
-      </c>
-      <c r="J62" s="7" t="s">
+      <c r="P62" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="Q62" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M62" s="7">
-        <v>72</v>
-      </c>
-      <c r="N62" s="7">
-        <v>46144</v>
-      </c>
-      <c r="O62" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C63" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D63" s="7">
-        <v>9308</v>
+        <v>0</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="H63" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I63" s="7">
-        <v>10413</v>
+        <v>687</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M63" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="N63" s="7">
-        <v>19721</v>
+        <v>687</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C64" s="7">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D64" s="7">
-        <v>19584</v>
+        <v>1321</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H64" s="7">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="I64" s="7">
-        <v>22581</v>
+        <v>670</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="M64" s="7">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="N64" s="7">
-        <v>42165</v>
+        <v>1991</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
+        <v>9</v>
+      </c>
+      <c r="C65" s="7">
+        <v>3</v>
+      </c>
+      <c r="D65" s="7">
+        <v>1843</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H65" s="7">
+        <v>4</v>
+      </c>
+      <c r="I65" s="7">
+        <v>2374</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M65" s="7">
         <v>7</v>
       </c>
-      <c r="C65" s="7">
-        <v>5</v>
-      </c>
-      <c r="D65" s="7">
-        <v>3391</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H65" s="7">
-        <v>5</v>
-      </c>
-      <c r="I65" s="7">
-        <v>3189</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M65" s="7">
-        <v>10</v>
-      </c>
       <c r="N65" s="7">
-        <v>6580</v>
+        <v>4217</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -11435,13 +11435,13 @@
         <v>1264</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="H66" s="7">
         <v>5</v>
@@ -11450,13 +11450,13 @@
         <v>3681</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="M66" s="7">
         <v>7</v>
@@ -11465,274 +11465,274 @@
         <v>4945</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C67" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" s="7">
-        <v>1843</v>
+        <v>3391</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H67" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I67" s="7">
-        <v>2374</v>
+        <v>3189</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="M67" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N67" s="7">
-        <v>4217</v>
+        <v>6580</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C68" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D68" s="7">
-        <v>1321</v>
+        <v>19584</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H68" s="7">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="I68" s="7">
-        <v>670</v>
+        <v>22581</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="M68" s="7">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="N68" s="7">
-        <v>1991</v>
+        <v>42165</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C69" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D69" s="7">
-        <v>0</v>
+        <v>9308</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="H69" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I69" s="7">
-        <v>687</v>
+        <v>10413</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M69" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="N69" s="7">
-        <v>687</v>
+        <v>19721</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C70" s="7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D70" s="7">
-        <v>3395</v>
+        <v>24065</v>
       </c>
       <c r="E70" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H70" s="7">
+        <v>36</v>
+      </c>
+      <c r="I70" s="7">
+        <v>22080</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="L70" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="M70" s="7">
+        <v>72</v>
+      </c>
+      <c r="N70" s="7">
+        <v>46144</v>
+      </c>
+      <c r="O70" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="H70" s="7">
-        <v>2</v>
-      </c>
-      <c r="I70" s="7">
-        <v>1183</v>
-      </c>
-      <c r="J70" s="7" t="s">
+      <c r="P70" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K70" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L70" s="7" t="s">
+      <c r="Q70" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="M70" s="7">
-        <v>7</v>
-      </c>
-      <c r="N70" s="7">
-        <v>4578</v>
-      </c>
-      <c r="O70" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P70" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q70" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="5">
+        <v>3</v>
+      </c>
+      <c r="C71" s="7">
+        <v>9</v>
+      </c>
+      <c r="D71" s="7">
+        <v>5834</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H71" s="7">
+        <v>4</v>
+      </c>
+      <c r="I71" s="7">
+        <v>2383</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M71" s="7">
         <v>13</v>
       </c>
-      <c r="C71" s="7">
-        <v>0</v>
-      </c>
-      <c r="D71" s="7">
-        <v>0</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H71" s="7">
-        <v>0</v>
-      </c>
-      <c r="I71" s="7">
-        <v>0</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M71" s="7">
-        <v>0</v>
-      </c>
       <c r="N71" s="7">
-        <v>0</v>
+        <v>8218</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C72" s="7">
         <v>0</v>
@@ -11741,49 +11741,49 @@
         <v>0</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>171</v>
       </c>
       <c r="H72" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="M72" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" s="7">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>249</v>
+        <v>10</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C73" s="7">
         <v>0</v>
@@ -11792,10 +11792,10 @@
         <v>0</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>171</v>
@@ -11807,10 +11807,10 @@
         <v>0</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>172</v>
@@ -11822,10 +11822,10 @@
         <v>0</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q73" s="7" t="s">
         <v>173</v>
@@ -11834,7 +11834,7 @@
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C74" s="7">
         <v>0</v>
@@ -11843,43 +11843,43 @@
         <v>0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>171</v>
       </c>
       <c r="H74" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="7">
         <v>0</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="M74" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74" s="7">
         <v>0</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
